--- a/Documents/vdf_flow.xlsx
+++ b/Documents/vdf_flow.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Reference\Reference\Reference_AddEntities\VFD1\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{881C07C1-3B29-40AD-95D0-CC2D45C27EE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6203B80-ED1E-40EB-86B2-A65777CC5438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5F43614C-8E06-4B03-A500-10C807BA3D48}"/>
   </bookViews>
   <sheets>
     <sheet name="Flow" sheetId="1" r:id="rId1"/>
+    <sheet name="Flow1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>No</t>
   </si>
@@ -56,12 +57,15 @@
   <si>
     <t>eg . . .</t>
   </si>
+  <si>
+    <t>The builld routing is being processed by these decisions step by step</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,6 +76,14 @@
     <font>
       <b/>
       <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -98,12 +110,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2851,6 +2864,2157 @@
           <a:solidFill>
             <a:srgbClr val="FF0000"/>
           </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>548368</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>57941</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>269421</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>153191</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Flowchart: Decision 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{523A0919-317C-4EA8-A631-722920F4BF99}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10301968" y="4058441"/>
+          <a:ext cx="3378653" cy="1428750"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>Check 4 Instrument,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t> 1 Destination, 1 Obstacle</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>399169</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>37211</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>376037</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>113411</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Flowchart: Terminator 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F80B906-F309-44D4-8320-92E5A58B69A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11371969" y="37211"/>
+          <a:ext cx="1196068" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartTerminator">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>Start</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>175052</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>83154</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>609120</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>16479</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Flowchart: Manual Input 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA97B91F-6BE7-4B52-998F-DA841667EB28}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11147852" y="1035654"/>
+          <a:ext cx="1653268" cy="1076325"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartManualInput">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>Manual</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t> Setting for Objects</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>437349</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>79792</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>352985</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>184567</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Flowchart: Process 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AB422D6-8A61-4F6F-8232-B8CEF60A17FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10800549" y="2556292"/>
+          <a:ext cx="2354036" cy="866775"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>Read and </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>Create</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t> Routing processing</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>410374</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>17280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>387242</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>147908</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Flowchart: Terminator 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2EB773D-7332-4813-AF36-1B9D81175246}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11383174" y="16781280"/>
+          <a:ext cx="1196068" cy="702128"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartTerminator">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>End</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>387242</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>10316</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>269421</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>14558</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Connector: Elbow 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07E1AB1F-0E50-42DF-89D7-AED16440EC54}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="3"/>
+          <a:endCxn id="6" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="12579242" y="4772816"/>
+          <a:ext cx="1101379" cy="12386742"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -21031"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>76432</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>435587</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>157114</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Flowchart: Decision 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0803CB5F-89B9-4D7E-9B23-24A1C5806264}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="5791432"/>
+          <a:ext cx="2873987" cy="1604682"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>Check Obstacle's</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t> height/Width is inside in Instrument's Center</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>528437</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>20401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>433348</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>35530</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Flowchart: Decision 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B048D5F1-070D-4942-8A16-C459BB0EE811}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4186037" y="5735401"/>
+          <a:ext cx="2952911" cy="1729629"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>Check whether</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t> first segment should be vertical or horizontal</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>252693</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>42812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>190180</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>2471</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Flowchart: Decision 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B0C90B0-0D3D-4F4E-B8F2-97A10A4B49EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="252693" y="8615312"/>
+          <a:ext cx="2375887" cy="1674159"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>Check </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>3 segments</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>449673</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>38010</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>365309</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>142785</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Flowchart: Process 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84C02252-9B43-4C25-B2CE-32AEF0EADC6E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10812873" y="9182010"/>
+          <a:ext cx="2354036" cy="866775"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>Generate</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t> Dimension</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>420061</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>188490</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>24493</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>42813</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Flowchart: Stored Data 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{017286B4-0D01-4D4B-9BC8-5F9D12DCC70A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1639261" y="14475990"/>
+          <a:ext cx="3871632" cy="997323"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartOnlineStorage">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>Store Segment Dimension</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>407491</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>153191</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>408895</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>38010</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D2E8033-C302-45E7-8F4E-A1F4943DBA60}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="11" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="11989891" y="5487191"/>
+          <a:ext cx="1404" cy="3694819"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>243168</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>143666</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>85965</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>7513</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Flowchart: Decision 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3590935-2E7E-40CC-91C2-6557B02DC90E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4510368" y="8525666"/>
+          <a:ext cx="2281197" cy="1768847"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>Check second</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t> segment is inside Obstacle</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>582706</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>177284</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>366753</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>91559</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Flowchart: Process 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{920A6EF8-9FB2-4468-AD29-BC7B8F2C2F0B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="582706" y="12178784"/>
+          <a:ext cx="1612847" cy="866775"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>Draw  3 Segment</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>568138</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>9196</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>352186</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>113971</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Flowchart: Process 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F1415C1-D60B-4814-B93A-F4BE65936B1F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4835338" y="10677196"/>
+          <a:ext cx="1612848" cy="866775"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>Change reverse</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t> route</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>579344</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>20402</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>363392</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>125177</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Flowchart: Process 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7D97CCC-5272-4E43-82B2-E466E3D2BEB5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4846544" y="12212402"/>
+          <a:ext cx="1612848" cy="866775"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>Draw  2 Segment</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>217794</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>157114</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>221437</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>42812</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Straight Arrow Connector 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B95F9DE9-445C-422D-BB92-0B2CC19F5B64}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="2"/>
+          <a:endCxn id="10" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1436994" y="7396114"/>
+          <a:ext cx="3643" cy="1219198"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>164567</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>35530</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>179694</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>143666</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Straight Arrow Connector 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37F4A43C-519E-4B6A-A684-E174BD34DF50}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="2"/>
+          <a:endCxn id="14" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5650967" y="7465030"/>
+          <a:ext cx="15127" cy="1060636"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>158964</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>7513</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>164567</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>9196</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Straight Arrow Connector 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A28BE03-CAA0-446E-B99F-FA193EC2AAC3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="14" idx="2"/>
+          <a:endCxn id="16" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5645364" y="10294513"/>
+          <a:ext cx="5603" cy="382683"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>173532</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>2471</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>221437</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>177284</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Straight Arrow Connector 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F548C795-47DC-4120-82ED-DF198015E1BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="2"/>
+          <a:endCxn id="15" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1392732" y="10289471"/>
+          <a:ext cx="47905" cy="1889313"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>158964</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>113971</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>170170</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>20402</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Straight Arrow Connector 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9327F9F4-D942-4DE6-8C64-76806CFD5E4A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="16" idx="2"/>
+          <a:endCxn id="17" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5645364" y="11543971"/>
+          <a:ext cx="11206" cy="668431"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>190180</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>117892</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>579344</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>72790</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Connector: Elbow 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07AF0F82-836C-41FA-B966-DD8B583EB70B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="3"/>
+          <a:endCxn id="17" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2628580" y="9452392"/>
+          <a:ext cx="2217964" cy="3193398"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>164567</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>123216</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>433348</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>143666</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="Connector: Elbow 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06E4CA76-C421-4969-BDE5-2A3C479087F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="3"/>
+          <a:endCxn id="14" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5650967" y="6600216"/>
+          <a:ext cx="1487981" cy="1925450"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -15513"/>
+            <a:gd name="adj2" fmla="val 72457"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>363392</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>75590</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>85965</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>72790</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Connector: Elbow 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{828B4F8B-321E-416E-AE3F-7774F0DDE473}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="14" idx="3"/>
+          <a:endCxn id="17" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6459392" y="9410090"/>
+          <a:ext cx="332173" cy="3235700"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -70345"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>523475</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>125177</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>170170</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>188490</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="Straight Arrow Connector 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7098CA0C-5F93-48AE-8B24-6B66A771A107}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="17" idx="2"/>
+          <a:endCxn id="12" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3571475" y="13079177"/>
+          <a:ext cx="2085095" cy="1396813"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>173532</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>91559</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>523475</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>188490</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E7C35BE-9C96-4D1C-960F-7773F08EA818}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="15" idx="2"/>
+          <a:endCxn id="12" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1392732" y="13045559"/>
+          <a:ext cx="2178743" cy="1430431"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>435587</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>116773</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>528437</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>123216</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="Straight Arrow Connector 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCA80D77-1452-406A-9F19-734CB2A94115}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="3"/>
+          <a:endCxn id="9" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2873987" y="6593773"/>
+          <a:ext cx="1312050" cy="6443"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>217795</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>10316</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>548369</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>76432</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="Connector: Elbow 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FAA3651-A169-4ABB-8F57-A48F001772A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="1"/>
+          <a:endCxn id="8" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="1436995" y="4772816"/>
+          <a:ext cx="8864974" cy="1018616"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>172249</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>9195</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>16328</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>54019</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="Flowchart: Display 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD09ACD0-605E-4B9B-927F-325CAA9AD2EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11145049" y="14677695"/>
+          <a:ext cx="1672879" cy="997324"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDisplay">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>Display Dimension</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>385803</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>188490</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>267660</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>54019</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="Arrow: Right 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39F2DB43-A2A3-4B5C-8D23-84A3276388E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6481803" y="14666490"/>
+          <a:ext cx="3539457" cy="818029"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>399089</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>142785</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>407491</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>9195</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="Straight Arrow Connector 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{682E2F30-DBAC-4B78-BB83-9CAE4DBC544A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="2"/>
+          <a:endCxn id="30" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="11981489" y="10048785"/>
+          <a:ext cx="8402" cy="4628910"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>398808</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>54019</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>399089</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>17280</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A97BD45A-BD34-4FEA-AD0F-8DFEE5DFF457}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="30" idx="2"/>
+          <a:endCxn id="6" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="11981208" y="15675019"/>
+          <a:ext cx="281" cy="1106261"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>387603</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>113411</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>392086</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>287</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="Straight Arrow Connector 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4E40C6D-8EC2-48CF-AB2A-46B0285F1BFC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="2"/>
+          <a:endCxn id="4" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11970003" y="684911"/>
+          <a:ext cx="4483" cy="458376"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>392086</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>16479</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>395168</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>79792</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="Straight Arrow Connector 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DD46CE8-A494-4685-91B8-1BAE05B15772}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="2"/>
+          <a:endCxn id="5" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11974486" y="2111979"/>
+          <a:ext cx="3082" cy="444313"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>395168</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>184567</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>408895</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>57941</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="Straight Arrow Connector 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FC638C5-38BE-4CA9-B659-8EFA28C2E163}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="2"/>
+          <a:endCxn id="2" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11977568" y="3423067"/>
+          <a:ext cx="13727" cy="635374"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -3171,14 +5335,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E174F04D-E007-4118-81E0-F2DA5625A1D0}">
-  <dimension ref="C25:AK88"/>
+  <dimension ref="C24:AK88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J72" sqref="J72"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="72" zoomScaleNormal="81" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
+    <row r="24" spans="6:24" x14ac:dyDescent="0.25">
+      <c r="G24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+    </row>
     <row r="25" spans="6:24" x14ac:dyDescent="0.25">
       <c r="P25" t="s">
         <v>1</v>
@@ -3228,78 +5402,78 @@
       </c>
     </row>
     <row r="85" spans="3:37" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C85" s="2" t="s">
+      <c r="C85" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D85" s="2">
+      <c r="D85" s="1">
         <v>1</v>
       </c>
-      <c r="E85" s="1" t="s">
+      <c r="E85" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F85" s="1"/>
-      <c r="G85" s="1"/>
-      <c r="H85" s="1"/>
-      <c r="I85" s="2">
+      <c r="F85" s="2"/>
+      <c r="G85" s="2"/>
+      <c r="H85" s="2"/>
+      <c r="I85" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="86" spans="3:37" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C86" s="2"/>
-      <c r="D86" s="2">
+      <c r="C86" s="1"/>
+      <c r="D86" s="1">
         <v>2</v>
       </c>
-      <c r="E86" s="1" t="s">
+      <c r="E86" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F86" s="1"/>
-      <c r="G86" s="1"/>
-      <c r="H86" s="1"/>
-      <c r="I86" s="2">
+      <c r="F86" s="2"/>
+      <c r="G86" s="2"/>
+      <c r="H86" s="2"/>
+      <c r="I86" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="87" spans="3:37" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C87" s="2"/>
-      <c r="D87" s="2">
+      <c r="C87" s="1"/>
+      <c r="D87" s="1">
         <v>3</v>
       </c>
-      <c r="E87" s="1" t="s">
+      <c r="E87" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F87" s="1"/>
-      <c r="G87" s="1"/>
-      <c r="H87" s="1"/>
-      <c r="I87" s="2">
+      <c r="F87" s="2"/>
+      <c r="G87" s="2"/>
+      <c r="H87" s="2"/>
+      <c r="I87" s="1">
         <v>30</v>
       </c>
     </row>
     <row r="88" spans="3:37" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C88" s="2"/>
-      <c r="D88" s="2">
+      <c r="C88" s="1"/>
+      <c r="D88" s="1">
         <v>4</v>
       </c>
-      <c r="E88" s="1" t="s">
+      <c r="E88" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F88" s="1"/>
-      <c r="G88" s="1"/>
-      <c r="H88" s="1"/>
-      <c r="I88" s="2">
+      <c r="F88" s="2"/>
+      <c r="G88" s="2"/>
+      <c r="H88" s="2"/>
+      <c r="I88" s="1">
         <v>40</v>
       </c>
-      <c r="AB88" s="1" t="s">
+      <c r="AB88" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="AC88" s="1"/>
-      <c r="AD88" s="1"/>
-      <c r="AE88" s="1"/>
-      <c r="AF88" s="1"/>
-      <c r="AG88" s="1"/>
-      <c r="AH88" s="1"/>
-      <c r="AI88" s="1"/>
-      <c r="AJ88" s="1"/>
-      <c r="AK88" s="1"/>
+      <c r="AC88" s="2"/>
+      <c r="AD88" s="2"/>
+      <c r="AE88" s="2"/>
+      <c r="AF88" s="2"/>
+      <c r="AG88" s="2"/>
+      <c r="AH88" s="2"/>
+      <c r="AI88" s="2"/>
+      <c r="AJ88" s="2"/>
+      <c r="AK88" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3313,4 +5487,19 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A46A1B05-1DA1-4CE4-819E-C998EB9DBB82}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>